--- a/PHP Project Tables/PHP project tables (Team 7).xlsx
+++ b/PHP Project Tables/PHP project tables (Team 7).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_HUMBER\SEM 2\Web App Dev 2\project\PHP Project Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Labs\HTTP-5202-Team-7-Project\PHP Project Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D50D9DFD-73E1-475F-AC7B-EE921BC5B11F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>Team 7 - Php Explorers</t>
   </si>
@@ -147,15 +146,9 @@
     <t>order_date</t>
   </si>
   <si>
-    <t>order_details_id</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
-    <t>int (Foriegn key)</t>
-  </si>
-  <si>
     <t>order_details</t>
   </si>
   <si>
@@ -190,12 +183,15 @@
   </si>
   <si>
     <t>int auto-increment (Primary key)</t>
+  </si>
+  <si>
+    <t>orders_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -415,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -493,7 +489,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -746,18 +741,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="18.25" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
@@ -883,7 +878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:6">
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
@@ -900,7 +895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="28.5">
+    <row r="18" spans="2:6" ht="28.5">
       <c r="B18" s="11" t="s">
         <v>13</v>
       </c>
@@ -917,19 +912,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:6">
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75">
+    <row r="21" spans="2:6" ht="15.75">
       <c r="B21" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:6">
       <c r="B22" s="23" t="s">
         <v>6</v>
       </c>
@@ -943,7 +938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="28.5">
+    <row r="23" spans="2:6" ht="28.5">
       <c r="B23" s="11" t="s">
         <v>13</v>
       </c>
@@ -957,15 +952,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1">
+    <row r="24" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:6" ht="15.75" customHeight="1">
       <c r="B26" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1">
+    <row r="27" spans="2:6" ht="15.75" customHeight="1">
       <c r="B27" s="6" t="s">
         <v>6</v>
       </c>
@@ -982,7 +977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1">
+    <row r="28" spans="2:6" ht="15.75" customHeight="1">
       <c r="B28" s="24" t="s">
         <v>13</v>
       </c>
@@ -999,138 +994,138 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="31" spans="2:7" ht="15.75" customHeight="1">
+    <row r="29" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1">
       <c r="B31" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1">
+    <row r="32" spans="2:6" ht="15.75" customHeight="1">
       <c r="B32" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="33" spans="2:6" ht="15.75" customHeight="1">
       <c r="B33" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="35" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="36" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B36" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B37" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="24" customHeight="1">
+      <c r="B38" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="30" t="s">
+      <c r="E38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="40" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="41" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B41" s="39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B42" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="24" customHeight="1">
-      <c r="B38" s="31" t="s">
+      <c r="C42" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="40" t="s">
+      <c r="D42" s="34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="34" t="s">
+      <c r="E42" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="34.5" customHeight="1">
+    </row>
+    <row r="43" spans="2:6" ht="34.5" customHeight="1">
       <c r="B43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="46" spans="2:7" ht="15.75" customHeight="1">
+    <row r="44" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="45" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="46" spans="2:6" ht="15.75" customHeight="1">
       <c r="B46" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="15.75" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="15.75" customHeight="1">
       <c r="B47" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="30.75" customHeight="1">
+      <c r="B48" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B48" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>25</v>
